--- a/MCAO/MAX_HEADERS.xlsx
+++ b/MCAO/MAX_HEADERS.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettsullivan/Desktop/BHRF/Data_Recourses/LANDSCRAPE/adhs-restore-28-Jul-2025 copy/MCAO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45BFE9F-F0F8-7C40-9C35-721C9936DADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDF5BC7-4600-FB4B-AF1F-61FDDF8543C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="3700" windowWidth="26840" windowHeight="15940" xr2:uid="{79CD12A3-156F-714F-B30C-42F18A8FDF5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{79CD12A3-156F-714F-B30C-42F18A8FDF5D}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxHeaders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>COUNTY</t>
   </si>
@@ -288,13 +288,79 @@
   </si>
   <si>
     <t>FULL_ADDRESS</t>
+  </si>
+  <si>
+    <t>IsRental</t>
+  </si>
+  <si>
+    <t>LocalJusidiction</t>
+  </si>
+  <si>
+    <t>MCR</t>
+  </si>
+  <si>
+    <t>MapIDs_Book/Map Maps_0_UpdateDate</t>
+  </si>
+  <si>
+    <t>MapIDs_Book/Map Maps_0_Url</t>
+  </si>
+  <si>
+    <t>MapIDs_Book/Map Maps_1_UpdateDate</t>
+  </si>
+  <si>
+    <t>MapIDs_Book/Map Maps_1_Url</t>
+  </si>
+  <si>
+    <t>MapIDs_Book/Map Maps_2_UpdateDate</t>
+  </si>
+  <si>
+    <t>MapIDs_Book/Map Maps_2_Url</t>
+  </si>
+  <si>
+    <t>NumberOfParcelsInMCR</t>
+  </si>
+  <si>
+    <t>NumberOfParcelsInSTR</t>
+  </si>
+  <si>
+    <t>NumberOfParcelsInSubdivision</t>
+  </si>
+  <si>
+    <t>Owner_DeedType</t>
+  </si>
+  <si>
+    <t>Owner_SaleDate</t>
+  </si>
+  <si>
+    <t>PEPropUseDesc</t>
+  </si>
+  <si>
+    <t>PropertyAddress</t>
+  </si>
+  <si>
+    <t>PropertyDescription</t>
+  </si>
+  <si>
+    <t>ResidentialPropertyData_ConstructionYear</t>
+  </si>
+  <si>
+    <t>ResidentialPropertyData_ExteriorWalls</t>
+  </si>
+  <si>
+    <t>ResidentialPropertyData_ImprovementQualityGrade</t>
+  </si>
+  <si>
+    <t>Valuations_0_AssessedLPV</t>
+  </si>
+  <si>
+    <t>Valuations_0_AssessmentRatioPercentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,18 +369,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -344,10 +427,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,34 +463,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -651,15 +737,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8455E0F9-81AB-FC4B-9665-2640AD935615}">
-  <dimension ref="A1:CF1"/>
+  <dimension ref="A1:DB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:DB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:106" ht="96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -911,6 +997,72 @@
       </c>
       <c r="CF1" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
